--- a/Actividad3_IA.xlsx
+++ b/Actividad3_IA.xlsx
@@ -10,17 +10,14 @@
     <sheet name="fin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fin!$A$1:$G$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fin!$A$1:$E$190</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="442">
-  <si>
-    <t>Country,</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="440">
   <si>
     <t>Total Deaths</t>
   </si>
@@ -31,57 +28,36 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Both sexes</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>39,463,277</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
     <t>2,875,854</t>
   </si>
   <si>
-    <t>73.5</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
     <t>44,335,512</t>
   </si>
   <si>
-    <t>72.2</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>33,486,722</t>
   </si>
   <si>
-    <t>49.3</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>45,450,837</t>
   </si>
   <si>
-    <t>74.1</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
@@ -97,9 +73,6 @@
     <t>25,681,596</t>
   </si>
   <si>
-    <t>79.7</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -130,9 +103,6 @@
     <t>1,737,386</t>
   </si>
   <si>
-    <t>70.5</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -145,18 +115,12 @@
     <t>Barbados</t>
   </si>
   <si>
-    <t>74.5</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
     <t>9,447,402</t>
   </si>
   <si>
-    <t>68.8</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -169,18 +133,12 @@
     <t>Belize</t>
   </si>
   <si>
-    <t>70.3</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>12,316,507</t>
   </si>
   <si>
-    <t>56.6</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -193,9 +151,6 @@
     <t>11,770,699</t>
   </si>
   <si>
-    <t>66.0</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
@@ -211,9 +166,6 @@
     <t>2,380,640</t>
   </si>
   <si>
-    <t>45.6</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -229,42 +181,27 @@
     <t>6,915,998</t>
   </si>
   <si>
-    <t>71.6</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>21,251,940</t>
   </si>
   <si>
-    <t>51.6</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>12,105,886</t>
   </si>
   <si>
-    <t>43.8</t>
-  </si>
-  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
-    <t>71.0</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
     <t>26,948,455</t>
   </si>
   <si>
-    <t>52.8</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -280,18 +217,12 @@
     <t>4,881,165</t>
   </si>
   <si>
-    <t>44.3</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>16,712,347</t>
   </si>
   <si>
-    <t>51.1</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -319,18 +250,12 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>61.5</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
     <t>5,600,852</t>
   </si>
   <si>
-    <t>52.1</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -361,9 +286,6 @@
     <t>1,212,770</t>
   </si>
   <si>
-    <t>78.7</t>
-  </si>
-  <si>
     <t>Czechia</t>
   </si>
   <si>
@@ -385,9 +307,6 @@
     <t>Djibouti</t>
   </si>
   <si>
-    <t>59.8</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
@@ -403,9 +322,6 @@
     <t>91,214,579</t>
   </si>
   <si>
-    <t>52.4</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -418,36 +334,24 @@
     <t>103,514,732</t>
   </si>
   <si>
-    <t>69.8</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
     <t>6,506,379</t>
   </si>
   <si>
-    <t>72.5</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>1,430,927</t>
   </si>
   <si>
-    <t>54.3</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>3,576,527</t>
   </si>
   <si>
-    <t>54.5</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -460,27 +364,18 @@
     <t>1,167,547</t>
   </si>
   <si>
-    <t>47.0</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
     <t>116,698,689</t>
   </si>
   <si>
-    <t>50.6</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
     <t>5,546,035</t>
   </si>
   <si>
-    <t>77.6</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -505,27 +400,18 @@
     <t>2,457,950</t>
   </si>
   <si>
-    <t>59.2</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>3,984,430</t>
   </si>
   <si>
-    <t>69.4</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>83,949,242</t>
   </si>
   <si>
-    <t>78.1</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -544,9 +430,6 @@
     <t>18,118,278</t>
   </si>
   <si>
-    <t>66.8</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
@@ -559,33 +442,21 @@
     <t>1,996,362</t>
   </si>
   <si>
-    <t>50.3</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
-    <t>63.0</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
     <t>11,487,870</t>
   </si>
   <si>
-    <t>57.0</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>10,001,113</t>
   </si>
   <si>
-    <t>70.0</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -604,27 +475,18 @@
     <t>1,388,345,614</t>
   </si>
   <si>
-    <t>62.1</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>275,301,041</t>
   </si>
   <si>
-    <t>67.2</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>84,652,766</t>
   </si>
   <si>
-    <t>72.6</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -655,9 +517,6 @@
     <t>60,406,838</t>
   </si>
   <si>
-    <t>79.4</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -697,9 +556,6 @@
     <t>54,494,209</t>
   </si>
   <si>
-    <t>53.9</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -721,36 +577,24 @@
     <t>1,873,240</t>
   </si>
   <si>
-    <t>70.2</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
     <t>6,806,512</t>
   </si>
   <si>
-    <t>74.6</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
     <t>2,152,701</t>
   </si>
   <si>
-    <t>47.8</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
     <t>5,130,169</t>
   </si>
   <si>
-    <t>53.8</t>
-  </si>
-  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -775,18 +619,12 @@
     <t>28,124,516</t>
   </si>
   <si>
-    <t>58.8</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
     <t>19,430,946</t>
   </si>
   <si>
-    <t>44.7</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -805,9 +643,6 @@
     <t>20,605,334</t>
   </si>
   <si>
-    <t>52.6</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -817,9 +652,6 @@
     <t>4,724,055</t>
   </si>
   <si>
-    <t>62.0</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -832,33 +664,21 @@
     <t>4,028,162</t>
   </si>
   <si>
-    <t>66.9</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>3,310,628</t>
   </si>
   <si>
-    <t>60.5</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>73.6</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>37,179,216</t>
   </si>
   <si>
-    <t>69.3</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
@@ -874,18 +694,12 @@
     <t>54,634,436</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
     <t>2,569,058</t>
   </si>
   <si>
-    <t>53.3</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -922,18 +736,12 @@
     <t>24,736,683</t>
   </si>
   <si>
-    <t>50.4</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>209,252,629</t>
   </si>
   <si>
-    <t>53.6</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -958,9 +766,6 @@
     <t>223,514,389</t>
   </si>
   <si>
-    <t>60.1</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -1000,9 +805,6 @@
     <t>110,475,954</t>
   </si>
   <si>
-    <t>69.0</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -1045,30 +847,18 @@
     <t>13,147,846</t>
   </si>
   <si>
-    <t>47.5</t>
-  </si>
-  <si>
     <t>S. Korea</t>
   </si>
   <si>
     <t>51,296,443</t>
   </si>
   <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>76.2</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>63.5</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1081,9 +871,6 @@
     <t>17,012,512</t>
   </si>
   <si>
-    <t>58.6</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -1099,9 +886,6 @@
     <t>8,076,095</t>
   </si>
   <si>
-    <t>48.7</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -1132,27 +916,18 @@
     <t>16,162,864</t>
   </si>
   <si>
-    <t>49.9</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>59,767,678</t>
   </si>
   <si>
-    <t>55.8</t>
-  </si>
-  <si>
     <t>South Sudan</t>
   </si>
   <si>
     <t>11,274,320</t>
   </si>
   <si>
-    <t>54.1</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -1177,9 +952,6 @@
     <t>Suriname</t>
   </si>
   <si>
-    <t>69.9</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1219,9 +991,6 @@
     <t>8,397,046</t>
   </si>
   <si>
-    <t>55.9</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -1249,9 +1018,6 @@
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>UAE</t>
-  </si>
-  <si>
     <t>9,963,773</t>
   </si>
   <si>
@@ -1264,9 +1030,6 @@
     <t>46,617,407</t>
   </si>
   <si>
-    <t>48.8</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -1279,9 +1042,6 @@
     <t>43,570,894</t>
   </si>
   <si>
-    <t>67.5</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -1294,9 +1054,6 @@
     <t>332,198,570</t>
   </si>
   <si>
-    <t>76.7</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -1333,16 +1090,253 @@
     <t>18,697,026</t>
   </si>
   <si>
-    <t>44.5</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>14,995,578</t>
   </si>
   <si>
-    <t>46.6</t>
+    <t>Life expectancy</t>
+  </si>
+  <si>
+    <t>63.2</t>
+  </si>
+  <si>
+    <t>77.1</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>81.6</t>
+  </si>
+  <si>
+    <t>75.8</t>
+  </si>
+  <si>
+    <t>74.3</t>
+  </si>
+  <si>
+    <t>81.4</t>
+  </si>
+  <si>
+    <t>63.4</t>
+  </si>
+  <si>
+    <t>73.1</t>
+  </si>
+  <si>
+    <t>72.1</t>
+  </si>
+  <si>
+    <t>62.2</t>
+  </si>
+  <si>
+    <t>75.9</t>
+  </si>
+  <si>
+    <t>75.1</t>
+  </si>
+  <si>
+    <t>63.8</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>62.4</t>
+  </si>
+  <si>
+    <t>82.2</t>
+  </si>
+  <si>
+    <t>53.1</t>
+  </si>
+  <si>
+    <t>59.6</t>
+  </si>
+  <si>
+    <t>80.7</t>
+  </si>
+  <si>
+    <t>77.4</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>67.4</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>80.8</t>
+  </si>
+  <si>
+    <t>77.8</t>
+  </si>
+  <si>
+    <t>83.1</t>
+  </si>
+  <si>
+    <t>81.3</t>
+  </si>
+  <si>
+    <t>65.8</t>
+  </si>
+  <si>
+    <t>71.8</t>
+  </si>
+  <si>
+    <t>64.1</t>
+  </si>
+  <si>
+    <t>57.7</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>81.7</t>
+  </si>
+  <si>
+    <t>66.3</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>60.2</t>
+  </si>
+  <si>
+    <t>82.3</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>72.4</t>
+  </si>
+  <si>
+    <t>81.8</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>66.1</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>82.4</t>
+  </si>
+  <si>
+    <t>74.7</t>
+  </si>
+  <si>
+    <t>62.8</t>
+  </si>
+  <si>
+    <t>81.9</t>
+  </si>
+  <si>
+    <t>68.4</t>
+  </si>
+  <si>
+    <t>68.1</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>64.6</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>62.6</t>
+  </si>
+  <si>
+    <t>73.9</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>70.4</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>83.3</t>
+  </si>
+  <si>
+    <t>75.6</t>
+  </si>
+  <si>
+    <t>68.6</t>
+  </si>
+  <si>
+    <t>60.8</t>
+  </si>
+  <si>
+    <t>83.2</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>83.4</t>
+  </si>
+  <si>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>66.6</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>Country1</t>
+  </si>
+  <si>
+    <t>Country2</t>
   </si>
 </sst>
 </file>
@@ -1678,29 +1672,33 @@
   <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1708,7 +1706,7 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2.427</v>
@@ -1717,13 +1715,13 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1731,7 +1729,7 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1.5309999999999999</v>
@@ -1740,13 +1738,13 @@
         <v>532</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1754,7 +1752,7 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2.93</v>
@@ -1763,13 +1761,13 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1777,7 +1775,7 @@
         <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>487</v>
@@ -1786,13 +1784,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1800,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>49.874000000000002</v>
@@ -1809,13 +1807,13 @@
         <v>1097</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1823,7 +1821,7 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>3.1379999999999999</v>
@@ -1832,13 +1830,13 @@
         <v>1058</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1846,7 +1844,7 @@
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>909</v>
@@ -1855,13 +1853,13 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1869,7 +1867,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>8.17</v>
@@ -1878,13 +1876,13 @@
         <v>904</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1892,7 +1890,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>3.173</v>
@@ -1901,13 +1899,13 @@
         <v>311</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1915,7 +1913,7 @@
         <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>178</v>
@@ -1927,10 +1925,10 @@
         <v>395.55399999999997</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1938,7 +1936,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>393</v>
@@ -1947,13 +1945,13 @@
         <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1961,7 +1959,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>8.2530000000000001</v>
@@ -1970,13 +1968,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1984,7 +1982,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1996,10 +1994,10 @@
         <v>287.59199999999998</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2007,7 +2005,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1.83</v>
@@ -2016,13 +2014,13 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2030,7 +2028,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>21.550999999999998</v>
@@ -2039,13 +2037,13 @@
         <v>1855</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2053,7 +2051,7 @@
         <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>313</v>
@@ -2065,10 +2063,10 @@
         <v>402.04399999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2076,7 +2074,7 @@
         <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>56</v>
@@ -2085,13 +2083,13 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2099,7 +2097,7 @@
         <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2111,10 +2109,10 @@
         <v>776.82799999999997</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2122,7 +2120,7 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>11.044</v>
@@ -2131,13 +2129,13 @@
         <v>938</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2145,7 +2143,7 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>4.8810000000000002</v>
@@ -2154,13 +2152,13 @@
         <v>1493</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2168,7 +2166,7 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>202</v>
@@ -2177,13 +2175,13 @@
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2191,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>236.39699999999999</v>
@@ -2200,13 +2198,13 @@
         <v>1107</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2214,7 +2212,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>9.5609999999999999</v>
@@ -2223,13 +2221,13 @@
         <v>1382</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2237,7 +2235,7 @@
         <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>134</v>
@@ -2246,13 +2244,13 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2260,7 +2258,7 @@
         <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2269,13 +2267,13 @@
         <v>0.2</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2283,7 +2281,7 @@
         <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>138</v>
@@ -2295,10 +2293,10 @@
         <v>559.697</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2306,7 +2304,7 @@
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>474</v>
@@ -2315,13 +2313,13 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2329,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>21.088000000000001</v>
@@ -2338,13 +2336,13 @@
         <v>556</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2352,7 +2350,7 @@
         <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>63</v>
@@ -2361,13 +2359,13 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2375,7 +2373,7 @@
         <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>126</v>
@@ -2384,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2398,7 +2396,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>19.344999999999999</v>
@@ -2407,13 +2405,13 @@
         <v>1007</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2421,7 +2419,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>4.6360000000000001</v>
@@ -2430,13 +2428,13 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2444,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>56.982999999999997</v>
@@ -2453,13 +2451,13 @@
         <v>1113</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2467,7 +2465,7 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>122</v>
@@ -2479,10 +2477,10 @@
         <v>880.91200000000003</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2490,7 +2488,7 @@
         <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>122</v>
@@ -2499,13 +2497,13 @@
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2513,7 +2511,7 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>2.71</v>
@@ -2522,13 +2520,13 @@
         <v>529</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2536,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>5.282</v>
@@ -2545,13 +2543,13 @@
         <v>1292</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2559,7 +2557,7 @@
         <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>257</v>
@@ -2568,13 +2566,13 @@
         <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2582,7 +2580,7 @@
         <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>218</v>
@@ -2591,13 +2589,13 @@
         <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2605,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>17.902000000000001</v>
@@ -2614,13 +2612,13 @@
         <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2628,7 +2626,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>2.2799999999999998</v>
@@ -2637,13 +2635,13 @@
         <v>393</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2651,7 +2649,7 @@
         <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>63</v>
@@ -2663,10 +2661,10 @@
         <v>996.80899999999997</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2674,7 +2672,7 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>2.9169999999999998</v>
@@ -2683,13 +2681,13 @@
         <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2697,7 +2695,7 @@
         <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>691</v>
@@ -2706,13 +2704,13 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2720,7 +2718,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>15.173999999999999</v>
@@ -2729,13 +2727,13 @@
         <v>852</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2743,7 +2741,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C47">
         <v>9.8569999999999993</v>
@@ -2752,13 +2750,13 @@
         <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2766,7 +2764,7 @@
         <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C48">
         <v>1.7270000000000001</v>
@@ -2775,13 +2773,13 @@
         <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2789,7 +2787,7 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C49">
         <v>87</v>
@@ -2798,13 +2796,13 @@
         <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2812,7 +2810,7 @@
         <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -2821,13 +2819,13 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2835,7 +2833,7 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C51">
         <v>486</v>
@@ -2844,13 +2842,13 @@
         <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2858,7 +2856,7 @@
         <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C52">
         <v>619</v>
@@ -2867,13 +2865,13 @@
         <v>530</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2881,7 +2879,7 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C53">
         <v>2.1709999999999998</v>
@@ -2890,13 +2888,13 @@
         <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2904,7 +2902,7 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C54">
         <v>710</v>
@@ -2913,13 +2911,13 @@
         <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
-        <v>153</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2927,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C55">
         <v>80.802999999999997</v>
@@ -2936,13 +2934,13 @@
         <v>1236</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2950,7 +2948,7 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C56">
         <v>71</v>
@@ -2959,13 +2957,13 @@
         <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2973,7 +2971,7 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C57">
         <v>135</v>
@@ -2982,13 +2980,13 @@
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2996,7 +2994,7 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C58">
         <v>3.3359999999999999</v>
@@ -3005,13 +3003,13 @@
         <v>837</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3019,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C59">
         <v>64.805999999999997</v>
@@ -3028,13 +3026,13 @@
         <v>772</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3042,7 +3040,7 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>494</v>
@@ -3051,13 +3049,13 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>162</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3065,7 +3063,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C61">
         <v>6.077</v>
@@ -3074,13 +3072,13 @@
         <v>585</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" t="s">
         <v>171</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3088,7 +3086,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="C62">
         <v>6.0570000000000004</v>
@@ -3097,13 +3095,13 @@
         <v>334</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3111,7 +3109,7 @@
         <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C63">
         <v>84</v>
@@ -3120,13 +3118,13 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3134,7 +3132,7 @@
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C64">
         <v>46</v>
@@ -3143,13 +3141,13 @@
         <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="G64" t="s">
-        <v>180</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3157,7 +3155,7 @@
         <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C65">
         <v>184</v>
@@ -3169,10 +3167,10 @@
         <v>788.89200000000005</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3180,7 +3178,7 @@
         <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C66">
         <v>246</v>
@@ -3189,13 +3187,13 @@
         <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3203,7 +3201,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C67">
         <v>3.8380000000000001</v>
@@ -3212,13 +3210,13 @@
         <v>384</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3226,7 +3224,7 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="C68">
         <v>13.542999999999999</v>
@@ -3235,13 +3233,13 @@
         <v>1404</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="G68" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3249,7 +3247,7 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="C69">
         <v>29</v>
@@ -3261,10 +3259,10 @@
         <v>342.60700000000003</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3272,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="C70">
         <v>155.56899999999999</v>
@@ -3281,13 +3279,13 @@
         <v>112</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3295,7 +3293,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C71">
         <v>32.655999999999999</v>
@@ -3304,13 +3302,13 @@
         <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G71" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3318,7 +3316,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C72">
         <v>58.808999999999997</v>
@@ -3327,13 +3325,13 @@
         <v>695</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G72" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3341,7 +3339,7 @@
         <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C73">
         <v>13.157</v>
@@ -3350,13 +3348,13 @@
         <v>323</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="F73" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3364,7 +3362,7 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C74">
         <v>3.8460000000000001</v>
@@ -3373,13 +3371,13 @@
         <v>774</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="G74" t="s">
-        <v>206</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3387,7 +3385,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C75">
         <v>5.3040000000000003</v>
@@ -3396,13 +3394,13 @@
         <v>577</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="F75" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="G75" t="s">
-        <v>209</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3410,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C76">
         <v>93.045000000000002</v>
@@ -3419,13 +3417,13 @@
         <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G76" t="s">
-        <v>212</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3433,7 +3431,7 @@
         <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="C77">
         <v>368</v>
@@ -3442,13 +3440,13 @@
         <v>124</v>
       </c>
       <c r="E77" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="G77" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3456,7 +3454,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C78">
         <v>6.774</v>
@@ -3465,13 +3463,13 @@
         <v>54</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="G78" t="s">
-        <v>218</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3479,7 +3477,7 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C79">
         <v>4.4329999999999998</v>
@@ -3488,13 +3486,13 @@
         <v>432</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="G79" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3502,7 +3500,7 @@
         <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C80">
         <v>2.54</v>
@@ -3511,13 +3509,13 @@
         <v>134</v>
       </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F80" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="G80" t="s">
-        <v>223</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3525,7 +3523,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="C81">
         <v>1.794</v>
@@ -3534,13 +3532,13 @@
         <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="F81" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="G81" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3548,7 +3546,7 @@
         <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C82">
         <v>992</v>
@@ -3557,13 +3555,13 @@
         <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="G82" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3571,7 +3569,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="C83">
         <v>1.4390000000000001</v>
@@ -3580,13 +3578,13 @@
         <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3594,7 +3592,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="C84">
         <v>1.431</v>
@@ -3603,13 +3601,13 @@
         <v>764</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="G84" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3617,7 +3615,7 @@
         <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C85">
         <v>3.8660000000000001</v>
@@ -3626,13 +3624,13 @@
         <v>568</v>
       </c>
       <c r="E85" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="F85" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3640,7 +3638,7 @@
         <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="C86">
         <v>212</v>
@@ -3649,13 +3647,13 @@
         <v>98</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="F86" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G86" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3663,7 +3661,7 @@
         <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="C87">
         <v>84</v>
@@ -3672,13 +3670,13 @@
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3686,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C88">
         <v>2.0139999999999998</v>
@@ -3695,13 +3693,13 @@
         <v>291</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3709,7 +3707,7 @@
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="C89">
         <v>3.0379999999999998</v>
@@ -3718,13 +3716,13 @@
         <v>1126</v>
       </c>
       <c r="E89" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="F89" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3732,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="C90">
         <v>604</v>
@@ -3744,10 +3742,10 @@
         <v>632.21600000000001</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3755,7 +3753,7 @@
         <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="C91">
         <v>285</v>
@@ -3764,13 +3762,13 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="F91" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3778,7 +3776,7 @@
         <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="C92">
         <v>914</v>
@@ -3787,13 +3785,13 @@
         <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="F92" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3801,7 +3799,7 @@
         <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="C93">
         <v>953</v>
@@ -3810,13 +3808,13 @@
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="F93" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3824,7 +3822,7 @@
         <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="C94">
         <v>56</v>
@@ -3836,10 +3834,10 @@
         <v>546.37</v>
       </c>
       <c r="F94" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="G94" t="s">
-        <v>78</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3847,7 +3845,7 @@
         <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="C95">
         <v>340</v>
@@ -3856,13 +3854,13 @@
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="F95" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="G95" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3870,7 +3868,7 @@
         <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="C96">
         <v>288</v>
@@ -3882,10 +3880,10 @@
         <v>442.26900000000001</v>
       </c>
       <c r="F96" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="G96" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3893,7 +3891,7 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="C97">
         <v>427</v>
@@ -3902,13 +3900,13 @@
         <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>413</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3916,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C98">
         <v>171.23400000000001</v>
@@ -3925,13 +3923,13 @@
         <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="G98" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3939,7 +3937,7 @@
         <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="C99">
         <v>3.6259999999999999</v>
@@ -3948,13 +3946,13 @@
         <v>900</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="F99" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="G99" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3962,7 +3960,7 @@
         <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -3971,13 +3969,13 @@
         <v>0.6</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="G100" t="s">
-        <v>274</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3985,7 +3983,7 @@
         <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="C101">
         <v>880</v>
@@ -3997,10 +3995,10 @@
         <v>628.11500000000001</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="G101" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4008,7 +4006,7 @@
         <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="C102">
         <v>8.44</v>
@@ -4017,13 +4015,13 @@
         <v>227</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="F102" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="G102" t="s">
-        <v>279</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4031,7 +4029,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C103">
         <v>514</v>
@@ -4040,13 +4038,13 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="F103" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="G103" t="s">
-        <v>282</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4054,7 +4052,7 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="C104">
         <v>3.1880000000000002</v>
@@ -4063,13 +4061,13 @@
         <v>58</v>
       </c>
       <c r="E104" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="F104" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="G104" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4077,7 +4075,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="C105">
         <v>384</v>
@@ -4086,13 +4084,13 @@
         <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="F105" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="G105" t="s">
-        <v>288</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4100,7 +4098,7 @@
         <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="C106">
         <v>2.0539999999999998</v>
@@ -4109,13 +4107,13 @@
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="F106" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="G106" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4123,7 +4121,7 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="C107">
         <v>14.727</v>
@@ -4132,13 +4130,13 @@
         <v>858</v>
       </c>
       <c r="E107" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="F107" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="G107" t="s">
-        <v>106</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4146,7 +4144,7 @@
         <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="C108">
         <v>25</v>
@@ -4155,13 +4153,13 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="F108" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="G108" t="s">
-        <v>209</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4169,7 +4167,7 @@
         <v>148</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="C109">
         <v>171</v>
@@ -4178,13 +4176,13 @@
         <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="F109" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="G109" t="s">
-        <v>298</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4192,7 +4190,7 @@
         <v>156</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="C110">
         <v>167</v>
@@ -4201,13 +4199,13 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="F110" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="G110" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4215,7 +4213,7 @@
         <v>72</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="C111">
         <v>1.71</v>
@@ -4224,13 +4222,13 @@
         <v>8</v>
       </c>
       <c r="E111" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="G111" t="s">
-        <v>304</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4238,7 +4236,7 @@
         <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="C112">
         <v>592</v>
@@ -4247,13 +4245,13 @@
         <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="F112" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="G112" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4261,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="C113">
         <v>1.5389999999999999</v>
@@ -4270,13 +4268,13 @@
         <v>297</v>
       </c>
       <c r="E113" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="F113" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4284,7 +4282,7 @@
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="C114">
         <v>12.218</v>
@@ -4293,13 +4291,13 @@
         <v>55</v>
       </c>
       <c r="E114" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="F114" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="G114" t="s">
-        <v>313</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4307,7 +4305,7 @@
         <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="C115">
         <v>5.5720000000000001</v>
@@ -4316,13 +4314,13 @@
         <v>1279</v>
       </c>
       <c r="E115" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="F115" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G115" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4330,7 +4328,7 @@
         <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -4339,13 +4337,13 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="G116" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4353,7 +4351,7 @@
         <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="C117">
         <v>2.891</v>
@@ -4362,13 +4360,13 @@
         <v>402</v>
       </c>
       <c r="E117" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="F117" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="G117" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4376,7 +4374,7 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="C118">
         <v>43.045000000000002</v>
@@ -4385,13 +4383,13 @@
         <v>1294</v>
       </c>
       <c r="E118" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="F118" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="G118" t="s">
-        <v>109</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4399,7 +4397,7 @@
         <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="C119">
         <v>11.494999999999999</v>
@@ -4408,13 +4406,13 @@
         <v>104</v>
       </c>
       <c r="E119" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="F119" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="G119" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4422,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="C120">
         <v>40.423999999999999</v>
@@ -4431,13 +4429,13 @@
         <v>1069</v>
       </c>
       <c r="E120" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="F120" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="G120" t="s">
-        <v>98</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4445,7 +4443,7 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C121">
         <v>15.034000000000001</v>
@@ -4454,13 +4452,13 @@
         <v>1477</v>
       </c>
       <c r="E121" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="F121" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="G121" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4468,7 +4466,7 @@
         <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="C122">
         <v>254</v>
@@ -4477,13 +4475,13 @@
         <v>90</v>
       </c>
       <c r="E122" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="F122" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="G122" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4491,7 +4489,7 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="C123">
         <v>19.277000000000001</v>
@@ -4500,13 +4498,13 @@
         <v>1006</v>
       </c>
       <c r="E123" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="F123" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="G123" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4514,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="C124">
         <v>79.194000000000003</v>
@@ -4523,13 +4521,13 @@
         <v>543</v>
       </c>
       <c r="E124" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="F124" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="G124" t="s">
-        <v>291</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4537,7 +4535,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="C125">
         <v>231</v>
@@ -4546,13 +4544,13 @@
         <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="F125" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="G125" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4560,7 +4558,7 @@
         <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="C126">
         <v>1.5069999999999999</v>
@@ -4569,13 +4567,13 @@
         <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="G126" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4583,7 +4581,7 @@
         <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="C127">
         <v>22</v>
@@ -4595,10 +4593,10 @@
         <v>184.14400000000001</v>
       </c>
       <c r="F127" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="G127" t="s">
-        <v>125</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4606,7 +4604,7 @@
         <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="C128">
         <v>19</v>
@@ -4618,10 +4616,10 @@
         <v>221.648</v>
       </c>
       <c r="F128" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="G128" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4629,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="C129">
         <v>6.4240000000000004</v>
@@ -4638,13 +4636,13 @@
         <v>183</v>
       </c>
       <c r="E129" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="F129" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4652,7 +4650,7 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="C130">
         <v>735</v>
@@ -4661,13 +4659,13 @@
         <v>43</v>
       </c>
       <c r="E130" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="F130" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="G130" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4675,7 +4673,7 @@
         <v>36</v>
       </c>
       <c r="B131" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="C131">
         <v>4.1989999999999998</v>
@@ -4684,13 +4682,13 @@
         <v>482</v>
       </c>
       <c r="E131" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="F131" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="G131" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4698,7 +4696,7 @@
         <v>179</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -4710,10 +4708,10 @@
         <v>98.721999999999994</v>
       </c>
       <c r="F132" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="G132" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4721,7 +4719,7 @@
         <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="C133">
         <v>79</v>
@@ -4730,13 +4728,13 @@
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="F133" t="s">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="G133" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4744,7 +4742,7 @@
         <v>94</v>
       </c>
       <c r="B134" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="C134">
         <v>29</v>
@@ -4753,13 +4751,13 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="F134" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="G134" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4767,7 +4765,7 @@
         <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="C135">
         <v>5.7329999999999997</v>
@@ -4776,13 +4774,13 @@
         <v>105</v>
       </c>
       <c r="E135" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="F135" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="G135" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4790,7 +4788,7 @@
         <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="C136">
         <v>3.6920000000000002</v>
@@ -4799,13 +4797,13 @@
         <v>1776</v>
       </c>
       <c r="E136" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="F136" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="G136" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4813,7 +4811,7 @@
         <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="C137">
         <v>144</v>
@@ -4822,13 +4820,13 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="F137" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="G137" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4836,7 +4834,7 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="C138">
         <v>47.381999999999998</v>
@@ -4845,13 +4843,13 @@
         <v>793</v>
       </c>
       <c r="E138" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="F138" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="G138" t="s">
-        <v>374</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4859,7 +4857,7 @@
         <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="C139">
         <v>71</v>
@@ -4868,13 +4866,13 @@
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="F139" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="G139" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4882,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="C140">
         <v>64.216999999999999</v>
@@ -4891,13 +4889,13 @@
         <v>1373</v>
       </c>
       <c r="E140" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F140" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="G140" t="s">
-        <v>84</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4905,7 +4903,7 @@
         <v>89</v>
       </c>
       <c r="B141" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="C141">
         <v>379</v>
@@ -4914,13 +4912,13 @@
         <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>381</v>
+        <v>306</v>
       </c>
       <c r="F141" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="G141" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4928,7 +4926,7 @@
         <v>112</v>
       </c>
       <c r="B142" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="C142">
         <v>1.849</v>
@@ -4937,13 +4935,13 @@
         <v>42</v>
       </c>
       <c r="E142" t="s">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="F142" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="G142" t="s">
-        <v>384</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4951,7 +4949,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="C143">
         <v>166</v>
@@ -4963,10 +4961,10 @@
         <v>589.86500000000001</v>
       </c>
       <c r="F143" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="G143" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4974,7 +4972,7 @@
         <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="C144">
         <v>12.428000000000001</v>
@@ -4983,13 +4981,13 @@
         <v>1226</v>
       </c>
       <c r="E144" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="F144" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="G144" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4997,7 +4995,7 @@
         <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="C145">
         <v>9.7390000000000008</v>
@@ -5006,13 +5004,13 @@
         <v>112</v>
       </c>
       <c r="E145" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="F145" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="G145" t="s">
-        <v>26</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5020,7 +5018,7 @@
         <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="C146">
         <v>968</v>
@@ -5029,13 +5027,13 @@
         <v>55</v>
       </c>
       <c r="E146" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="F146" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="G146" t="s">
-        <v>67</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5043,7 +5041,7 @@
         <v>129</v>
       </c>
       <c r="B147" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
       <c r="C147">
         <v>90</v>
@@ -5052,13 +5050,13 @@
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="F147" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5066,7 +5064,7 @@
         <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="C148">
         <v>80</v>
@@ -5075,13 +5073,13 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="F148" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="G148" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5089,7 +5087,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="C149">
         <v>80</v>
@@ -5098,13 +5096,13 @@
         <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="F149" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="G149" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5112,7 +5110,7 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="C150">
         <v>136</v>
@@ -5121,13 +5119,13 @@
         <v>97</v>
       </c>
       <c r="E150" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="F150" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="G150" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5135,7 +5133,7 @@
         <v>55</v>
       </c>
       <c r="B151" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="C151">
         <v>7.4290000000000003</v>
@@ -5144,13 +5142,13 @@
         <v>625</v>
       </c>
       <c r="E151" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="F151" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5158,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="C152">
         <v>27.187000000000001</v>
@@ -5167,13 +5165,13 @@
         <v>320</v>
       </c>
       <c r="E152" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="F152" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="G152" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5181,7 +5179,7 @@
         <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="C153">
         <v>12</v>
@@ -5193,10 +5191,10 @@
         <v>39.037999999999997</v>
       </c>
       <c r="F153" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="G153" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5204,7 +5202,7 @@
         <v>41</v>
       </c>
       <c r="B154" t="s">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="C154">
         <v>986</v>
@@ -5213,13 +5211,13 @@
         <v>99</v>
       </c>
       <c r="E154" t="s">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="F154" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="G154" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5227,7 +5225,7 @@
         <v>102</v>
       </c>
       <c r="B155" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="C155">
         <v>328</v>
@@ -5236,13 +5234,13 @@
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="F155" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="G155" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5250,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="C156">
         <v>116.28700000000001</v>
@@ -5259,13 +5257,13 @@
         <v>1707</v>
       </c>
       <c r="E156" t="s">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="F156" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="G156" t="s">
-        <v>229</v>
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5273,7 +5271,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="C157">
         <v>24.173999999999999</v>
@@ -5282,13 +5280,13 @@
         <v>555</v>
       </c>
       <c r="E157" t="s">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="F157" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="G157" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5296,7 +5294,7 @@
         <v>101</v>
       </c>
       <c r="B158" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="C158">
         <v>524</v>
@@ -5305,13 +5303,13 @@
         <v>151</v>
       </c>
       <c r="E158" t="s">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="F158" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="G158" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5319,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="C159">
         <v>487.65899999999999</v>
@@ -5328,13 +5326,13 @@
         <v>1468</v>
       </c>
       <c r="E159" t="s">
-        <v>424</v>
+        <v>344</v>
       </c>
       <c r="F159" t="s">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="G159" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5342,7 +5340,7 @@
         <v>87</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="C160">
         <v>622</v>
@@ -5351,13 +5349,13 @@
         <v>18</v>
       </c>
       <c r="E160" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="F160" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="G160" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5365,7 +5363,7 @@
         <v>76</v>
       </c>
       <c r="B161" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="C161">
         <v>1.26</v>
@@ -5374,13 +5372,13 @@
         <v>44</v>
       </c>
       <c r="E161" t="s">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="F161" t="s">
-        <v>430</v>
+        <v>349</v>
       </c>
       <c r="G161" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5388,7 +5386,7 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="C162">
         <v>35</v>
@@ -5397,13 +5395,13 @@
         <v>0.4</v>
       </c>
       <c r="E162" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="F162" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G162" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5411,7 +5409,7 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="C163">
         <v>616</v>
@@ -5420,13 +5418,13 @@
         <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
       <c r="F163" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="G163" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5434,7 +5432,7 @@
         <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="C164">
         <v>931</v>
@@ -5443,13 +5441,13 @@
         <v>50</v>
       </c>
       <c r="E164" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="F164" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="G164" t="s">
-        <v>438</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5457,7 +5455,7 @@
         <v>105</v>
       </c>
       <c r="B165" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C165">
         <v>1.3640000000000001</v>
@@ -5466,13 +5464,13 @@
         <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="F165" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="G165" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
